--- a/data/output/FV2410_FV2404/PARTIN/37004.xlsx
+++ b/data/output/FV2410_FV2404/PARTIN/37004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="270">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="270">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -920,6 +920,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U139" totalsRowShown="0">
+  <autoFilter ref="A1:U139"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1209,7 +1239,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8081,5 +8114,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/PARTIN/37004.xlsx
+++ b/data/output/FV2410_FV2404/PARTIN/37004.xlsx
@@ -1762,7 +1762,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2328,7 +2328,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -2932,7 +2932,7 @@
         <v>256</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3148,7 +3148,7 @@
         <v>256</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -4646,7 +4646,7 @@
         <v>260</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5672,7 +5672,7 @@
         <v>263</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6294,7 +6294,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6440,7 +6440,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6928,7 +6928,7 @@
         <v>260</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7612,7 +7612,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7880,7 +7880,7 @@
         <v>270</v>
       </c>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8564,7 +8564,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8832,7 +8832,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N137" s="2"/>
